--- a/starter/src/main/resources/static/downloads/file/微语客服系统功能清单.xlsx
+++ b/starter/src/main/resources/static/downloads/file/微语客服系统功能清单.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17260"/>
+    <workbookView windowWidth="30900" windowHeight="12860"/>
   </bookViews>
   <sheets>
     <sheet name="需求功能清单（工期）" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="206">
   <si>
     <t>项目</t>
   </si>
@@ -59,30 +59,18 @@
     <t>客户业务诉求配置</t>
   </si>
   <si>
-    <t>客户咨询入口自定义</t>
+    <t>入口自定义</t>
   </si>
   <si>
     <t>可针对自身需求来自定义企业在线咨询会话框界面样式，支持添加企业广告内容。</t>
   </si>
   <si>
-    <t>常见问题引导访客</t>
+    <t>引导访客</t>
   </si>
   <si>
     <t>客户在沟通界面查看和了解常见问题，支持预置一连串话术，可在客户接入时模拟真人发送，有效利用坐席资源同时满足客户需求。</t>
   </si>
   <si>
-    <t>客户排队提示</t>
-  </si>
-  <si>
-    <t>客户进入排队时系统提供智能排队提醒功能，降低忙碌时导致客户等待的情绪升级。</t>
-  </si>
-  <si>
-    <t>业务分流</t>
-  </si>
-  <si>
-    <t>客户在发起咨询前根据自身业务需求选择不同的业务类别，从而进入到不同业务客服接待组，提升服务质量和效率，通过接口对接或路由分配规则实现客户匹配坐席。</t>
-  </si>
-  <si>
     <t>客户留言</t>
   </si>
   <si>
@@ -92,18 +80,12 @@
     <t>在线客服管理</t>
   </si>
   <si>
-    <t>会话分配管理</t>
+    <t>会话分配</t>
   </si>
   <si>
     <t>支持对在线会话进行随机，轮询，记忆，优先等多种形式的分配，满足企业对不同会话的分配需求。</t>
   </si>
   <si>
-    <t>访客识别机制</t>
-  </si>
-  <si>
-    <t>系统将自动识别访客输入的手机号等信息并填写到对应的信息框中，减轻客服人员工作量，使客服人员更加专心服务客户关心问题，提升客服服务质量。</t>
-  </si>
-  <si>
     <t>客服工作台</t>
   </si>
   <si>
@@ -134,7 +116,10 @@
     <t>坐席可选择转接至某坐席，也可选择转接其它业务部。针对某些复杂咨询需要不同部门人员进行问题解答的，系统提供邀请坐席参与会话，进行三方会话功能。</t>
   </si>
   <si>
-    <t>满意度评价发起</t>
+    <t>满意度评价</t>
+  </si>
+  <si>
+    <t>评价发起</t>
   </si>
   <si>
     <t>客服人员在解答客户相关咨询后，可通过系统发送满意度评价请求，实现对坐席人员客服服务的质量监控。</t>
@@ -146,7 +131,7 @@
     <t>坐席发送消息后若对消息内容不满意可支持撤回2分钟内发送的内容。</t>
   </si>
   <si>
-    <t>在线咨询黑名单</t>
+    <t>黑名单</t>
   </si>
   <si>
     <t>针对恶意骚扰的访客id，坐席可以将其加入黑名单，加入黑名单后系统将拒收其发来的消息，禁止其发起人工咨询以及机器人咨询。</t>
@@ -161,13 +146,13 @@
     <t>可以将其置顶，并以特殊颜色标明，以方便服务；支持对待处理的会话按最新消息、客户等待时长、接入顺序，客户意向度进行排序，坐席可根据具体情况进行会话排序，提高会话处理质量和效率。</t>
   </si>
   <si>
-    <t>知识库快捷回复</t>
+    <t>快捷回复</t>
   </si>
   <si>
     <t>坐席可通过点击会话内容后的搜索图标或直接点击会话窗口的知识库图标进行知识库快速检索；可提供常用语快捷回复设置，常用语快捷回复提供坐席自定义以及部门整体公用，坐席可根据自身的话术习惯以及常用语自定义快捷回复内容，企业可自定义企业相关的标准答复作为部门整体公用。</t>
   </si>
   <si>
-    <t>在线咨询聊天记录导出</t>
+    <t>聊天记录导出</t>
   </si>
   <si>
     <t>可导出在线客服日志记录，导出信息包括：会话日期、坐席人员、满意度、持续时长等。</t>
@@ -212,24 +197,12 @@
     <t>外部知识库为访客提供常见问题，方便访客查看所需要的问题。</t>
   </si>
   <si>
-    <t>知识点统计</t>
-  </si>
-  <si>
-    <t>支持查看每一个知识点的点击量，便于对知识点进行更新。</t>
-  </si>
-  <si>
     <t>知识库搜索</t>
   </si>
   <si>
     <t>可提供内部知识库以及外部知识库搜索，当前目录定位到哪就针对该目录下知识点进行搜索，同时在线咨询模块中坐席可快速通过聊天框快捷按钮搜索知识库。</t>
   </si>
   <si>
-    <t>知识库权限控制</t>
-  </si>
-  <si>
-    <t>可控制每个坐席知识库的新增、编辑、删除权限。</t>
-  </si>
-  <si>
     <t>工单系统</t>
   </si>
   <si>
@@ -260,7 +233,7 @@
     <t>工单新建</t>
   </si>
   <si>
-    <t>支持在线、通话、通话等模块下进行工单创建，支持在工单新建或添加备注时自动预保存。</t>
+    <t>支持在线模块下进行工单创建，支持在工单新建或添加备注时自动预保存。</t>
   </si>
   <si>
     <t>工单领取</t>
@@ -290,7 +263,7 @@
     <t>可根据企业需要创建多个工单流程，将企业的业务线串联起来。支持查看每一个工单流程的流程图示，便于在创建过程中及时发现流程问题。</t>
   </si>
   <si>
-    <t>可视化查看工单流转</t>
+    <t>工单流转</t>
   </si>
   <si>
     <t>通过可视化组件，支持查看工单流转过程。</t>
@@ -305,6 +278,9 @@
     <t>可监控机器人的服务关键数据，包含解决率、评价满意度、服务转人工率、未知回答率、有效会话、当前生效知识等关键运营指标，可点击“详细指标”快速跳转至数据看板页面。</t>
   </si>
   <si>
+    <t>知识库</t>
+  </si>
+  <si>
     <t>知识库列表</t>
   </si>
   <si>
@@ -320,12 +296,6 @@
     <t>支持导入知识点，系统会自动进行去重处理，并给出相应的提示、支持问题、关联问题、一问多答导入导出。</t>
   </si>
   <si>
-    <t>推荐相似问题</t>
-  </si>
-  <si>
-    <t>支持基于用户输入的标准问题，推荐行业相似问题，可以选择推荐问题快捷添加到相似问题中，有助于提高机器人维护效率。</t>
-  </si>
-  <si>
     <t>一问多答</t>
   </si>
   <si>
@@ -338,45 +308,6 @@
     <t>富文本答案支持插入转人工入口，并且可以设置优先技能组，用户在答案中可快速点击转接人工。</t>
   </si>
   <si>
-    <t>知识点学习</t>
-  </si>
-  <si>
-    <t>全量学习</t>
-  </si>
-  <si>
-    <t>记录机器人无答案的用户问题，并且可以通过创建新知识、标为相似问、忽略等操作来丰富完善知识库。</t>
-  </si>
-  <si>
-    <t>点踩知识统计学习</t>
-  </si>
-  <si>
-    <t>统计记录访客点踩的知识点及用户相关提问，用户可查看了解知识点答案情况，并支持导出。</t>
-  </si>
-  <si>
-    <t>坐席纠错</t>
-  </si>
-  <si>
-    <t>人工学习提交的纠错信息，并支持对问题的答案、相似问题等进行修改。</t>
-  </si>
-  <si>
-    <t>未知问题智能归类</t>
-  </si>
-  <si>
-    <t>对全量的未知问题进行算法智能归类处理，推荐发现一些新知识点供用户快速处理。</t>
-  </si>
-  <si>
-    <t>推荐问题智能学习</t>
-  </si>
-  <si>
-    <t>对于机器人的推荐问题，可以记录用户是否有点击，便于后续对知识点进行优化维护。</t>
-  </si>
-  <si>
-    <t>不满意会话统计</t>
-  </si>
-  <si>
-    <t>统计记录访客不满意或情绪识别不满意的会话，用户可进行查看分析，也可以点击处理和忽略，便于系统管理员对机器人维护的效率进行把控。</t>
-  </si>
-  <si>
     <t>系统设置</t>
   </si>
   <si>
@@ -404,91 +335,73 @@
     <t>对机器人无答案的问题可自定义回复语。</t>
   </si>
   <si>
-    <t>成员管理</t>
-  </si>
-  <si>
-    <t>管理员可以添加和管理系统成员的权限等（管理员或普通用户），可实现多个成员账户共同维护机器人。</t>
-  </si>
-  <si>
-    <t>触发器</t>
-  </si>
-  <si>
-    <t>满足一定触发条件下，机器人支持主动触发某个任务或者回复某些话术。例如：1、长时间访客无消息，机器人主动发问或者触发任务，主动暖场；2、满足一定条件，自动触发某个任务。</t>
-  </si>
-  <si>
     <t>操作日志查看</t>
   </si>
   <si>
     <t>可查看所有成员的操作记录，便于追责溯源。</t>
   </si>
   <si>
+    <t>工作组监控</t>
+  </si>
+  <si>
+    <t>可对在线客服组进行监控，监控客服组登录坐席、开启自动领取坐席数、空闲坐席数、领取会话数、已处理会话数、流失会话数、留言数。</t>
+  </si>
+  <si>
+    <t>坐席监控</t>
+  </si>
+  <si>
+    <t>可监控坐席当日登录状态、会话总数、会话状态、已处理会话数、转出会话数、已完成会话数、留言数。</t>
+  </si>
+  <si>
+    <t>数据监控</t>
+  </si>
+  <si>
+    <t>可对在线客服会话情况、坐席状态等进行数据量化图表趋势、占比等监控。</t>
+  </si>
+  <si>
+    <t>周期</t>
+  </si>
+  <si>
+    <t>里程碑</t>
+  </si>
+  <si>
+    <t>事项</t>
+  </si>
+  <si>
+    <t>T月</t>
+  </si>
+  <si>
+    <t>项目启动</t>
+  </si>
+  <si>
+    <t>开发人员到位，确定开发软件、数据库等</t>
+  </si>
+  <si>
+    <t>需求分析</t>
+  </si>
+  <si>
+    <t>完成软件需求说明书及需求评审</t>
+  </si>
+  <si>
+    <t>T+1月</t>
+  </si>
+  <si>
+    <t>概要设计</t>
+  </si>
+  <si>
+    <t>完成概要设计说明书及概要评审</t>
+  </si>
+  <si>
+    <t>呼叫中心</t>
+  </si>
+  <si>
+    <t xml:space="preserve">对接12345热线，完成详细设计及详设评审、编码工作 </t>
+  </si>
+  <si>
+    <t>完成系统开发</t>
+  </si>
+  <si>
     <t>管理监控</t>
-  </si>
-  <si>
-    <t>接入号监控</t>
-  </si>
-  <si>
-    <t>可对在线客服的接入号进行监控，监控今日会话总数、待处理会话数、处理中会话数、今日已处理会话数、今日已完成会话数、留言数。</t>
-  </si>
-  <si>
-    <t>客服组监控</t>
-  </si>
-  <si>
-    <t>可对在线客服组进行监控，监控客服组登录坐席、开启自动领取坐席数、空闲坐席数、领取会话数、已处理会话数、流失会话数、留言数。</t>
-  </si>
-  <si>
-    <t>坐席监控</t>
-  </si>
-  <si>
-    <t>可监控坐席当日登录状态、会话总数、会话状态、已处理会话数、转出会话数、已完成会话数、留言数。</t>
-  </si>
-  <si>
-    <t>数据监控</t>
-  </si>
-  <si>
-    <t>可对在线客服会话情况、坐席状态等进行数据量化图表趋势、占比等监控。</t>
-  </si>
-  <si>
-    <t>周期</t>
-  </si>
-  <si>
-    <t>里程碑</t>
-  </si>
-  <si>
-    <t>事项</t>
-  </si>
-  <si>
-    <t>T月</t>
-  </si>
-  <si>
-    <t>项目启动</t>
-  </si>
-  <si>
-    <t>开发人员到位，确定开发软件、数据库等</t>
-  </si>
-  <si>
-    <t>需求分析</t>
-  </si>
-  <si>
-    <t>完成软件需求说明书及需求评审</t>
-  </si>
-  <si>
-    <t>T+1月</t>
-  </si>
-  <si>
-    <t>概要设计</t>
-  </si>
-  <si>
-    <t>完成概要设计说明书及概要评审</t>
-  </si>
-  <si>
-    <t>呼叫中心</t>
-  </si>
-  <si>
-    <t xml:space="preserve">对接12345热线，完成详细设计及详设评审、编码工作 </t>
-  </si>
-  <si>
-    <t>完成系统开发</t>
   </si>
   <si>
     <t>数据报表</t>
@@ -1167,7 +1080,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1421,6 +1334,17 @@
     </border>
     <border>
       <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color auto="1"/>
       </left>
       <right style="thin">
@@ -1593,7 +1517,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1605,34 +1529,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1717,7 +1641,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1809,30 +1733,39 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2174,10 +2107,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A59"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="17.6" outlineLevelCol="5"/>
@@ -2185,7 +2118,7 @@
     <col min="1" max="1" width="17.1666666666667" customWidth="1"/>
     <col min="2" max="2" width="19.6666666666667" style="7" customWidth="1"/>
     <col min="3" max="5" width="21.5" style="7" customWidth="1"/>
-    <col min="6" max="6" width="92.1583333333333" customWidth="1"/>
+    <col min="6" max="6" width="124.991666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2197,8 +2130,8 @@
       </c>
       <c r="C1" s="29"/>
       <c r="D1" s="29"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="36" t="s">
+      <c r="E1" s="38"/>
+      <c r="F1" s="39" t="s">
         <v>2</v>
       </c>
     </row>
@@ -2214,7 +2147,7 @@
       </c>
       <c r="D2" s="31"/>
       <c r="E2" s="31"/>
-      <c r="F2" s="37" t="s">
+      <c r="F2" s="40" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2228,7 +2161,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="31"/>
-      <c r="F3" s="37" t="s">
+      <c r="F3" s="40" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2240,7 +2173,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="31"/>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="40" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2252,98 +2185,100 @@
         <v>12</v>
       </c>
       <c r="E5" s="31"/>
-      <c r="F5" s="37" t="s">
+      <c r="F5" s="40" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" ht="41" spans="1:6">
+    <row r="6" ht="21" spans="1:6">
       <c r="A6" s="32"/>
       <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
+      <c r="C6" s="31" t="s">
+        <v>14</v>
+      </c>
       <c r="D6" s="31" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E6" s="31"/>
-      <c r="F6" s="37" t="s">
-        <v>15</v>
+      <c r="F6" s="40" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="7" ht="41" spans="1:6">
       <c r="A7" s="32"/>
       <c r="B7" s="31"/>
-      <c r="C7" s="31"/>
+      <c r="C7" s="31" t="s">
+        <v>17</v>
+      </c>
       <c r="D7" s="31" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" s="31"/>
-      <c r="F7" s="37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" ht="41" spans="1:6">
+      <c r="F7" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" ht="21" spans="1:6">
       <c r="A8" s="32"/>
       <c r="B8" s="31"/>
-      <c r="C8" s="31" t="s">
-        <v>18</v>
-      </c>
+      <c r="C8" s="31"/>
       <c r="D8" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="31"/>
-      <c r="F8" s="37" t="s">
         <v>20</v>
+      </c>
+      <c r="E8" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" s="40" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="9" ht="41" spans="1:6">
       <c r="A9" s="32"/>
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
-      <c r="D9" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" s="31"/>
-      <c r="F9" s="37" t="s">
-        <v>22</v>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="40" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="10" ht="41" spans="1:6">
       <c r="A10" s="32"/>
       <c r="B10" s="31"/>
-      <c r="C10" s="31" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="31"/>
-      <c r="F10" s="37" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" ht="21" spans="1:6">
+      <c r="F10" s="40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" ht="41" spans="1:6">
       <c r="A11" s="32"/>
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E11" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="37" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="12" ht="41" spans="1:6">
+      <c r="F11" s="40" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" ht="21" spans="1:6">
       <c r="A12" s="32"/>
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
       <c r="E12" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="37" t="s">
         <v>30</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" ht="41" spans="1:6">
@@ -2352,72 +2287,76 @@
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="31" t="s">
-        <v>31</v>
-      </c>
-      <c r="F13" s="37" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" ht="41" spans="1:6">
+      <c r="F13" s="40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" ht="62" spans="1:6">
       <c r="A14" s="32"/>
       <c r="B14" s="31"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="37" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="15" ht="21" spans="1:6">
+      <c r="E14" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" ht="82" spans="1:6">
       <c r="A15" s="32"/>
       <c r="B15" s="31"/>
       <c r="C15" s="31"/>
       <c r="D15" s="31"/>
       <c r="E15" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" ht="41" spans="1:6">
+        <v>37</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" ht="21" spans="1:6">
       <c r="A16" s="32"/>
       <c r="B16" s="31"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" ht="62" spans="1:6">
+        <v>39</v>
+      </c>
+      <c r="F16" s="40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" ht="21" spans="1:6">
       <c r="A17" s="32"/>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
-      <c r="D17" s="31" t="s">
-        <v>39</v>
-      </c>
+      <c r="D17" s="31"/>
       <c r="E17" s="31" t="s">
-        <v>40</v>
-      </c>
-      <c r="F17" s="37" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" ht="82" spans="1:6">
+      <c r="F17" s="40" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" ht="41" spans="1:6">
       <c r="A18" s="32"/>
       <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
+      <c r="C18" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>44</v>
+      </c>
       <c r="E18" s="31" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>43</v>
+        <v>45</v>
+      </c>
+      <c r="F18" s="40" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" ht="21" spans="1:6">
@@ -2426,538 +2365,350 @@
       <c r="C19" s="31"/>
       <c r="D19" s="31"/>
       <c r="E19" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="20" ht="21" spans="1:6">
+        <v>47</v>
+      </c>
+      <c r="F19" s="40" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" ht="41" spans="1:6">
       <c r="A20" s="32"/>
       <c r="B20" s="31"/>
       <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
+      <c r="D20" s="31" t="s">
+        <v>49</v>
+      </c>
       <c r="E20" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" ht="41" spans="1:6">
+        <v>50</v>
+      </c>
+      <c r="F20" s="40" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="21" ht="21" spans="1:6">
       <c r="A21" s="32"/>
       <c r="B21" s="31"/>
-      <c r="C21" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>49</v>
-      </c>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
       <c r="E21" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="22" ht="21" spans="1:6">
+        <v>52</v>
+      </c>
+      <c r="F21" s="40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" ht="41" spans="1:6">
       <c r="A22" s="32"/>
       <c r="B22" s="31"/>
       <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>53</v>
+      <c r="D22" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E22" s="31"/>
+      <c r="F22" s="40" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="23" ht="41" spans="1:6">
       <c r="A23" s="32"/>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="37" t="s">
+      <c r="B23" s="33" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" ht="21" spans="1:6">
+      <c r="C23" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="33"/>
+      <c r="F23" s="41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" ht="41" spans="1:6">
       <c r="A24" s="32"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31" t="s">
-        <v>57</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" ht="21" spans="1:6">
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="33"/>
+      <c r="F24" s="41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="25" ht="41" spans="1:6">
       <c r="A25" s="32"/>
-      <c r="B25" s="31"/>
-      <c r="C25" s="31"/>
-      <c r="D25" s="31" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="31"/>
-      <c r="F25" s="37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" ht="41" spans="1:6">
+      <c r="B25" s="33"/>
+      <c r="C25" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="41" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" ht="21" spans="1:6">
       <c r="A26" s="32"/>
-      <c r="B26" s="31"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E26" s="31"/>
-      <c r="F26" s="37" t="s">
-        <v>62</v>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="41" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="27" ht="21" spans="1:6">
       <c r="A27" s="32"/>
-      <c r="B27" s="31"/>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E27" s="31"/>
-      <c r="F27" s="37" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="28" ht="41" spans="1:6">
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="41" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" ht="21" spans="1:6">
       <c r="A28" s="32"/>
-      <c r="B28" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>66</v>
-      </c>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
       <c r="D28" s="33" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="E28" s="33"/>
-      <c r="F28" s="38" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" ht="41" spans="1:6">
+      <c r="F28" s="41" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="29" ht="21" spans="1:6">
       <c r="A29" s="32"/>
       <c r="B29" s="33"/>
       <c r="C29" s="33"/>
       <c r="D29" s="33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E29" s="33"/>
-      <c r="F29" s="38" t="s">
-        <v>70</v>
+      <c r="F29" s="41" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="30" ht="41" spans="1:6">
       <c r="A30" s="32"/>
       <c r="B30" s="33"/>
       <c r="C30" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="D30" s="33"/>
+        <v>73</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>74</v>
+      </c>
       <c r="E30" s="33"/>
-      <c r="F30" s="38" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" ht="41" spans="1:6">
+      <c r="F30" s="41" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" ht="21" spans="1:6">
       <c r="A31" s="32"/>
       <c r="B31" s="33"/>
-      <c r="C31" s="33" t="s">
-        <v>73</v>
-      </c>
+      <c r="C31" s="33"/>
       <c r="D31" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E31" s="33"/>
-      <c r="F31" s="38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="32" ht="21" spans="1:6">
+      <c r="F31" s="41" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="32" ht="62" spans="1:6">
       <c r="A32" s="32"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="33"/>
-      <c r="F32" s="38" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" ht="21" spans="1:6">
+      <c r="B32" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C32" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="D32" s="31"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" ht="41" spans="1:6">
       <c r="A33" s="32"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="E33" s="33"/>
-      <c r="F33" s="38" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" ht="21" spans="1:6">
+      <c r="B33" s="34" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="31" t="s">
+        <v>83</v>
+      </c>
+      <c r="E33" s="31"/>
+      <c r="F33" s="40" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" ht="41" spans="1:6">
       <c r="A34" s="32"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" s="33"/>
-      <c r="F34" s="38" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" ht="41" spans="1:6">
+      <c r="B34" s="35"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="31"/>
+      <c r="F34" s="40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="35" ht="82" spans="1:6">
       <c r="A35" s="32"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="D35" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="38" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="36" ht="21" spans="1:6">
+      <c r="B35" s="35"/>
+      <c r="C35" s="31"/>
+      <c r="D35" s="31" t="s">
+        <v>87</v>
+      </c>
+      <c r="E35" s="31"/>
+      <c r="F35" s="40" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" ht="41" spans="1:6">
       <c r="A36" s="32"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="38" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="37" ht="62" spans="1:6">
+      <c r="B36" s="36"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="E36" s="31"/>
+      <c r="F36" s="40" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" ht="21" spans="1:6">
       <c r="A37" s="32"/>
-      <c r="B37" s="31" t="s">
-        <v>87</v>
-      </c>
+      <c r="B37" s="31"/>
       <c r="C37" s="31" t="s">
-        <v>88</v>
-      </c>
-      <c r="D37" s="31"/>
+        <v>91</v>
+      </c>
+      <c r="D37" s="31" t="s">
+        <v>92</v>
+      </c>
       <c r="E37" s="31"/>
-      <c r="F37" s="37" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="38" ht="41" spans="1:6">
+      <c r="F37" s="40" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" ht="21" spans="1:6">
       <c r="A38" s="32"/>
       <c r="B38" s="31"/>
-      <c r="C38" s="31" t="s">
-        <v>90</v>
-      </c>
+      <c r="C38" s="31"/>
       <c r="D38" s="31" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E38" s="31"/>
-      <c r="F38" s="37" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" ht="41" spans="1:6">
+      <c r="F38" s="40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" ht="21" spans="1:6">
       <c r="A39" s="32"/>
       <c r="B39" s="31"/>
       <c r="C39" s="31"/>
       <c r="D39" s="31" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="E39" s="31"/>
-      <c r="F39" s="37" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" ht="41" spans="1:6">
+      <c r="F39" s="40" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="40" ht="21" spans="1:6">
       <c r="A40" s="32"/>
       <c r="B40" s="31"/>
       <c r="C40" s="31"/>
       <c r="D40" s="31" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="E40" s="31"/>
-      <c r="F40" s="37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" ht="82" spans="1:6">
+      <c r="F40" s="40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" ht="21" spans="1:6">
       <c r="A41" s="32"/>
       <c r="B41" s="31"/>
       <c r="C41" s="31"/>
       <c r="D41" s="31" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E41" s="31"/>
-      <c r="F41" s="37" t="s">
-        <v>98</v>
+      <c r="F41" s="40" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="42" ht="41" spans="1:6">
       <c r="A42" s="32"/>
       <c r="B42" s="31"/>
-      <c r="C42" s="31"/>
-      <c r="D42" s="31" t="s">
-        <v>99</v>
-      </c>
+      <c r="C42" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="D42" s="31"/>
       <c r="E42" s="31"/>
-      <c r="F42" s="37" t="s">
-        <v>100</v>
+      <c r="F42" s="40" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="43" ht="41" spans="1:6">
       <c r="A43" s="32"/>
       <c r="B43" s="31"/>
       <c r="C43" s="31" t="s">
-        <v>101</v>
-      </c>
-      <c r="D43" s="31" t="s">
-        <v>102</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D43" s="31"/>
       <c r="E43" s="31"/>
-      <c r="F43" s="37" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="44" ht="41" spans="1:6">
-      <c r="A44" s="32"/>
+      <c r="F43" s="40" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="44" ht="21" spans="1:6">
+      <c r="A44" s="37"/>
       <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31" t="s">
-        <v>104</v>
-      </c>
+      <c r="C44" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="D44" s="31"/>
       <c r="E44" s="31"/>
-      <c r="F44" s="37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="45" ht="21" spans="1:6">
-      <c r="A45" s="32"/>
-      <c r="B45" s="31"/>
-      <c r="C45" s="31"/>
-      <c r="D45" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E45" s="31"/>
-      <c r="F45" s="37" t="s">
+      <c r="F44" s="40" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="46" ht="21" spans="1:6">
-      <c r="A46" s="32"/>
-      <c r="B46" s="31"/>
-      <c r="C46" s="31"/>
-      <c r="D46" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="E46" s="31"/>
-      <c r="F46" s="37" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="47" ht="21" spans="1:6">
-      <c r="A47" s="32"/>
-      <c r="B47" s="31"/>
-      <c r="C47" s="31"/>
-      <c r="D47" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="E47" s="31"/>
-      <c r="F47" s="37" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="48" ht="41" spans="1:6">
-      <c r="A48" s="32"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="E48" s="31"/>
-      <c r="F48" s="37" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="49" ht="21" spans="1:6">
-      <c r="A49" s="32"/>
-      <c r="B49" s="31"/>
-      <c r="C49" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="D49" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="E49" s="31"/>
-      <c r="F49" s="37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="50" ht="21" spans="1:6">
-      <c r="A50" s="32"/>
-      <c r="B50" s="31"/>
-      <c r="C50" s="31"/>
-      <c r="D50" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="E50" s="31"/>
-      <c r="F50" s="37" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="51" ht="21" spans="1:6">
-      <c r="A51" s="32"/>
-      <c r="B51" s="31"/>
-      <c r="C51" s="31"/>
-      <c r="D51" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="E51" s="31"/>
-      <c r="F51" s="37" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="52" ht="21" spans="1:6">
-      <c r="A52" s="32"/>
-      <c r="B52" s="31"/>
-      <c r="C52" s="31"/>
-      <c r="D52" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="E52" s="31"/>
-      <c r="F52" s="37" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="53" ht="41" spans="1:6">
-      <c r="A53" s="32"/>
-      <c r="B53" s="31"/>
-      <c r="C53" s="31"/>
-      <c r="D53" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="E53" s="31"/>
-      <c r="F53" s="37" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="54" ht="62" spans="1:6">
-      <c r="A54" s="32"/>
-      <c r="B54" s="31"/>
-      <c r="C54" s="31"/>
-      <c r="D54" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="E54" s="31"/>
-      <c r="F54" s="37" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="55" ht="21" spans="1:6">
-      <c r="A55" s="32"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="31"/>
-      <c r="D55" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="E55" s="31"/>
-      <c r="F55" s="37" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="56" ht="41" spans="1:6">
-      <c r="A56" s="32"/>
-      <c r="B56" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="C56" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="D56" s="31"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="37" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="57" ht="41" spans="1:6">
-      <c r="A57" s="32"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="D57" s="31"/>
-      <c r="E57" s="31"/>
-      <c r="F57" s="37" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="58" ht="41" spans="1:6">
-      <c r="A58" s="32"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="D58" s="31"/>
-      <c r="E58" s="31"/>
-      <c r="F58" s="37" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="59" ht="21" spans="1:6">
-      <c r="A59" s="34"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="37" t="s">
-        <v>137</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="18">
     <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:B27"/>
-    <mergeCell ref="B28:B36"/>
-    <mergeCell ref="B37:B55"/>
-    <mergeCell ref="B56:B59"/>
-    <mergeCell ref="C3:C7"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="C10:C20"/>
-    <mergeCell ref="C21:C27"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C31:C34"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="C49:C55"/>
+    <mergeCell ref="A2:A44"/>
+    <mergeCell ref="B2:B22"/>
+    <mergeCell ref="B23:B31"/>
+    <mergeCell ref="B33:B36"/>
+    <mergeCell ref="C3:C5"/>
+    <mergeCell ref="C7:C17"/>
+    <mergeCell ref="C18:C22"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="C26:C29"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C33:C36"/>
+    <mergeCell ref="C37:C41"/>
+    <mergeCell ref="D8:D10"/>
     <mergeCell ref="D11:D13"/>
-    <mergeCell ref="D14:D16"/>
-    <mergeCell ref="D17:D20"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="D14:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -2983,46 +2734,46 @@
   <sheetData>
     <row r="1" ht="18.35" spans="1:3">
       <c r="A1" s="9" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" ht="53" customHeight="1" spans="1:3">
       <c r="A2" s="12" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" ht="18.35" spans="1:3">
       <c r="A3" s="15" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" ht="25" customHeight="1" spans="1:3">
       <c r="A4" s="18" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -3032,170 +2783,170 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="23" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="23" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B7" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="23" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C8" s="14"/>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="23" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="C9" s="14"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="23" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>152</v>
+        <v>123</v>
       </c>
       <c r="C10" s="14"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="23" t="s">
-        <v>153</v>
+        <v>124</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C11" s="14"/>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="23" t="s">
-        <v>154</v>
+        <v>125</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>155</v>
+        <v>126</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>156</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" ht="34.75" spans="1:3">
       <c r="A13" s="15" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B13" s="16" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" ht="34.75" spans="1:3">
       <c r="A14" s="15" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>160</v>
+        <v>131</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>161</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" ht="34.75" spans="1:3">
       <c r="A15" s="15" t="s">
-        <v>157</v>
+        <v>128</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>162</v>
+        <v>133</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>163</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" ht="34.75" spans="1:3">
       <c r="A16" s="15" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="B16" s="16" t="s">
-        <v>165</v>
+        <v>136</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>166</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17" ht="18.35" spans="1:3">
       <c r="A17" s="15" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
       <c r="C17" s="17" t="s">
-        <v>167</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18" ht="18.35" spans="1:3">
       <c r="A18" s="15" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="B18" s="16" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="C18" s="17" t="s">
-        <v>169</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19" ht="18.35" spans="1:3">
       <c r="A19" s="15" t="s">
-        <v>164</v>
+        <v>135</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>170</v>
+        <v>141</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>171</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" ht="18.35" spans="1:3">
       <c r="A20" s="15" t="s">
-        <v>172</v>
+        <v>143</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
       <c r="C20" s="25" t="s">
-        <v>173</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" ht="18.35" spans="1:3">
       <c r="A21" s="15" t="s">
-        <v>174</v>
+        <v>145</v>
       </c>
       <c r="B21" s="26" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>175</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
@@ -3214,8 +2965,8 @@
   <sheetPr/>
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89166666666667" defaultRowHeight="17.6" outlineLevelCol="2"/>
@@ -3227,13 +2978,13 @@
   <sheetData>
     <row r="1" ht="18.35" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>176</v>
+        <v>147</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>177</v>
+        <v>148</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>178</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2" ht="35.5" customHeight="1" spans="1:3">
@@ -3241,45 +2992,45 @@
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="3" ht="18.35" spans="1:3">
       <c r="A3" s="3"/>
       <c r="B3" s="4"/>
       <c r="C3" s="6" t="s">
-        <v>181</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" ht="18.35" spans="1:3">
       <c r="A4" s="3"/>
       <c r="B4" s="4"/>
       <c r="C4" s="6" t="s">
-        <v>182</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5" ht="18.35" spans="1:3">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5" s="5" t="s">
-        <v>183</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" ht="18.35" spans="1:3">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="5" t="s">
-        <v>184</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7" ht="18.35" spans="1:3">
       <c r="A7" s="3"/>
       <c r="B7" s="4"/>
       <c r="C7" s="4" t="s">
-        <v>185</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" ht="52.5" customHeight="1" spans="1:3">
@@ -3287,24 +3038,24 @@
         <v>2</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>186</v>
+        <v>157</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9" ht="18.35" spans="1:3">
       <c r="A9" s="3"/>
       <c r="B9" s="4"/>
       <c r="C9" s="5" t="s">
-        <v>188</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" ht="18.35" spans="1:3">
       <c r="A10" s="3"/>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
-        <v>189</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11" ht="52.5" customHeight="1" spans="1:3">
@@ -3312,24 +3063,24 @@
         <v>3</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>190</v>
+        <v>161</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>191</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" ht="18.35" spans="1:3">
       <c r="A12" s="3"/>
       <c r="B12" s="4"/>
       <c r="C12" s="5" t="s">
-        <v>192</v>
+        <v>163</v>
       </c>
     </row>
     <row r="13" ht="18.35" spans="1:3">
       <c r="A13" s="3"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4" t="s">
-        <v>193</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" ht="52.5" customHeight="1" spans="1:3">
@@ -3337,52 +3088,52 @@
         <v>4</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>195</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" ht="18.35" spans="1:3">
       <c r="A15" s="3"/>
       <c r="B15" s="4"/>
       <c r="C15" s="6" t="s">
-        <v>196</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" ht="18.35" spans="1:3">
       <c r="A16" s="3"/>
       <c r="B16" s="4"/>
       <c r="C16" s="5" t="s">
-        <v>197</v>
+        <v>168</v>
       </c>
     </row>
     <row r="17" ht="18.35" spans="1:3">
       <c r="A17" s="3"/>
       <c r="B17" s="4"/>
       <c r="C17" s="6" t="s">
-        <v>198</v>
+        <v>169</v>
       </c>
     </row>
     <row r="18" ht="18.35" spans="1:3">
       <c r="A18" s="3"/>
       <c r="B18" s="4"/>
       <c r="C18" s="5" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
     </row>
     <row r="19" ht="18.35" spans="1:3">
       <c r="A19" s="3"/>
       <c r="B19" s="4"/>
       <c r="C19" s="5" t="s">
-        <v>200</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20" ht="18.35" spans="1:3">
       <c r="A20" s="3"/>
       <c r="B20" s="4"/>
       <c r="C20" s="4" t="s">
-        <v>201</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" ht="35.5" customHeight="1" spans="1:3">
@@ -3390,66 +3141,66 @@
         <v>5</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>202</v>
+        <v>173</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>203</v>
+        <v>174</v>
       </c>
     </row>
     <row r="22" ht="18.35" spans="1:3">
       <c r="A22" s="3"/>
       <c r="B22" s="4"/>
       <c r="C22" s="6" t="s">
-        <v>204</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23" ht="18.35" spans="1:3">
       <c r="A23" s="3"/>
       <c r="B23" s="4"/>
       <c r="C23" s="5" t="s">
-        <v>205</v>
+        <v>176</v>
       </c>
     </row>
     <row r="24" ht="18.35" spans="1:3">
       <c r="A24" s="3"/>
       <c r="B24" s="4"/>
       <c r="C24" s="6" t="s">
-        <v>206</v>
+        <v>177</v>
       </c>
     </row>
     <row r="25" ht="18.35" spans="1:3">
       <c r="A25" s="3"/>
       <c r="B25" s="4"/>
       <c r="C25" s="5" t="s">
-        <v>207</v>
+        <v>178</v>
       </c>
     </row>
     <row r="26" ht="18.35" spans="1:3">
       <c r="A26" s="3"/>
       <c r="B26" s="4"/>
       <c r="C26" s="5" t="s">
-        <v>208</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" ht="18.35" spans="1:3">
       <c r="A27" s="3"/>
       <c r="B27" s="4"/>
       <c r="C27" s="5" t="s">
-        <v>209</v>
+        <v>180</v>
       </c>
     </row>
     <row r="28" ht="18.35" spans="1:3">
       <c r="A28" s="3"/>
       <c r="B28" s="4"/>
       <c r="C28" s="5" t="s">
-        <v>210</v>
+        <v>181</v>
       </c>
     </row>
     <row r="29" ht="18.35" spans="1:3">
       <c r="A29" s="3"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
     </row>
     <row r="30" ht="35.5" customHeight="1" spans="1:3">
@@ -3457,108 +3208,108 @@
         <v>6</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>212</v>
+        <v>183</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>213</v>
+        <v>184</v>
       </c>
     </row>
     <row r="31" ht="18.35" spans="1:3">
       <c r="A31" s="3"/>
       <c r="B31" s="4"/>
       <c r="C31" s="5" t="s">
-        <v>214</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" ht="18.35" spans="1:3">
       <c r="A32" s="3"/>
       <c r="B32" s="4"/>
       <c r="C32" s="5" t="s">
-        <v>215</v>
+        <v>186</v>
       </c>
     </row>
     <row r="33" ht="18.35" spans="1:3">
       <c r="A33" s="3"/>
       <c r="B33" s="4"/>
       <c r="C33" s="6" t="s">
-        <v>216</v>
+        <v>187</v>
       </c>
     </row>
     <row r="34" ht="18.35" spans="1:3">
       <c r="A34" s="3"/>
       <c r="B34" s="4"/>
       <c r="C34" s="5" t="s">
-        <v>217</v>
+        <v>188</v>
       </c>
     </row>
     <row r="35" ht="18.35" spans="1:3">
       <c r="A35" s="3"/>
       <c r="B35" s="4"/>
       <c r="C35" s="5" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" ht="18.35" spans="1:3">
       <c r="A36" s="3"/>
       <c r="B36" s="4"/>
       <c r="C36" s="5" t="s">
-        <v>219</v>
+        <v>190</v>
       </c>
     </row>
     <row r="37" ht="18.35" spans="1:3">
       <c r="A37" s="3"/>
       <c r="B37" s="4"/>
       <c r="C37" s="5" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
     </row>
     <row r="38" ht="18.35" spans="1:3">
       <c r="A38" s="3"/>
       <c r="B38" s="4"/>
       <c r="C38" s="5" t="s">
-        <v>221</v>
+        <v>192</v>
       </c>
     </row>
     <row r="39" ht="18.35" spans="1:3">
       <c r="A39" s="3"/>
       <c r="B39" s="4"/>
       <c r="C39" s="6" t="s">
-        <v>222</v>
+        <v>193</v>
       </c>
     </row>
     <row r="40" ht="18.35" spans="1:3">
       <c r="A40" s="3"/>
       <c r="B40" s="4"/>
       <c r="C40" s="5" t="s">
-        <v>223</v>
+        <v>194</v>
       </c>
     </row>
     <row r="41" ht="18.35" spans="1:3">
       <c r="A41" s="3"/>
       <c r="B41" s="4"/>
       <c r="C41" s="6" t="s">
-        <v>224</v>
+        <v>195</v>
       </c>
     </row>
     <row r="42" ht="18.35" spans="1:3">
       <c r="A42" s="3"/>
       <c r="B42" s="4"/>
       <c r="C42" s="5" t="s">
-        <v>225</v>
+        <v>196</v>
       </c>
     </row>
     <row r="43" ht="18.35" spans="1:3">
       <c r="A43" s="3"/>
       <c r="B43" s="4"/>
       <c r="C43" s="5" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
     </row>
     <row r="44" ht="18.35" spans="1:3">
       <c r="A44" s="3"/>
       <c r="B44" s="4"/>
       <c r="C44" s="4" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
     </row>
     <row r="45" ht="35.5" customHeight="1" spans="1:3">
@@ -3566,24 +3317,24 @@
         <v>7</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
     </row>
     <row r="46" ht="18.35" spans="1:3">
       <c r="A46" s="3"/>
       <c r="B46" s="4"/>
       <c r="C46" s="5" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
     </row>
     <row r="47" ht="18.35" spans="1:3">
       <c r="A47" s="3"/>
       <c r="B47" s="4"/>
       <c r="C47" s="4" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
     </row>
     <row r="48" ht="52.5" customHeight="1" spans="1:3">
@@ -3591,24 +3342,24 @@
         <v>8</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>199</v>
+        <v>170</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>232</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" ht="18.35" spans="1:3">
       <c r="A49" s="3"/>
       <c r="B49" s="4"/>
       <c r="C49" s="5" t="s">
-        <v>233</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" ht="18.35" spans="1:3">
       <c r="A50" s="3"/>
       <c r="B50" s="4"/>
       <c r="C50" s="4" t="s">
-        <v>234</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
